--- a/loaded_influencer_data/alicja.ugccreative/alicja.ugccreative_video.xlsx
+++ b/loaded_influencer_data/alicja.ugccreative/alicja.ugccreative_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,13 +506,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7442343697124953376</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C2" t="n">
         <v>91</v>
@@ -528,24 +528,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hey brands! Welcome to my page 💌
-I’m Alicja, a UK UGC creator with 2 years of experience in brand reputation &amp; comms 👩🏻‍💻</t>
+          <t>안녕 브랜드! 내 페이지에 오신 것을 환영합니다💌 저는 브랜드 평판 및 통신 분야에서 2년의 경험을 가진 영국 UGC 크리에이터 Alicja입니다👩🏻‍💻 저는 판매 광고 방식과는 달리 진정성과 관련성을 통해 디지털 마케팅을 향상시키는 소셜 미디어 콘텐츠에 대한 협업을 할 수 있습니다🚀 함께 일하고 싶다면 DM이나 alicja.ugccreative@gmail.com으로 연락하세요. 💌</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>21.51898734177215</v>
+        <v>21.47368421052632</v>
       </c>
       <c r="I2" t="n">
-        <v>19.19831223628692</v>
+        <v>19.1578947368421</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.320675105485232</v>
+        <v>2.315789473684211</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6329113924050633</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -559,118 +558,116 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alicja.ugccreative/video/7487959423906778390</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>770</v>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A short CapCut tutorial for a visual hook I used in a UGC client video recently! Do you enjoy the editing part of UGC? 🧐📹💻 If you’re a brand looking for converting content, get in touch via DM or alicja.ugccreative@gmail.com 💌 #contentcreator #ugc #ugccreator #ugcmarketing #ugcuk #ugcexample #socialmediamarketing #capcuttutorial #ugctips</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9.870129870129871</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.883116883116883</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.987012987012987</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.597402597402597</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7485436649128676630</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>788</v>
-      </c>
-      <c r="C3" t="n">
-        <v>91</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B4" t="n">
+        <v>821</v>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>11</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Hey brands! Welcome to my page 💌
-I’m Alicja, a UK UGC creator with 2 years of experience in brand reputation &amp; comms 👩🏻‍💻</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>12.94416243654822</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11.54822335025381</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.395939086294416</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.3807106598984772</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2024-11-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Are you going through a creative block? 😪 I hope that these 5 verbal hooks can spark an idea or inspire you to create some content! 🧨 If you’re a brand looking for hooking &amp; converting content, get in touch via DM or alicja.ugccreative@gmail.com 💌 #contentcreator #ugc #ugccreator #ugcuk #ugcexample #ugctips #ugchacks</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6.942752740560293</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.481120584652863</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.46163215590743</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.339829476248477</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7483197459217354006</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>960</v>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Are you going through a creative block? 😪
-I hope that these 5 verbal hooks can spark an idea or inspire you to create some content! 🧨</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5.104166666666667</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.958333333333333</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.145833333333333</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alicja.ugccreative/video/7482470447515192598</t>
-        </is>
-      </c>
       <c r="B5" t="n">
-        <v>863</v>
+        <v>976</v>
       </c>
       <c r="C5" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D5" t="n">
         <v>37</v>
@@ -683,24 +680,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Some things I’ve recently been paid to do as a UGC creator 😅
-But… let’s not underestimate the time &amp; effort that goes into scripting, brainstorming, admin, editing! 🙌🏼</t>
+          <t>당신은 창조적인 블록을 통과하고 😪 이 5가지 구두 갈고리가 아이디어를 불러일으키거나 콘텐츠를 만들도록 영감을 줄 수 있기를 바랍니다!🧨 후킹 및 변환 콘텐츠를 찾고 있는 브랜드라면 DM 또는 alicja.ugccreative@gmail.com 통해 연락하십시오. 💌</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>17.38122827346466</v>
+        <v>15.47131147540984</v>
       </c>
       <c r="I5" t="n">
-        <v>13.09385863267671</v>
+        <v>11.68032786885246</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>4.287369640787949</v>
+        <v>3.790983606557377</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6952491309385863</v>
+        <v>0.6147540983606558</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -712,16 +708,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alicja.ugccreative/video/7479940314350783766</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alicja.ugccreative/video/7482470447515192598</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>913</v>
+        <v>874</v>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
         <v>20</v>
@@ -734,24 +730,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A Day in Our Lives: Corporate London WFH meets South East Asia travels 👩🏻‍💻🌴🍵💃🏻
-Loved editing this side by side Friday vlog with my bestie. Would yours and your friends’ days look this different? 😅</t>
+          <t>우리 삶의 하루: 기업 런던 WFH는 동남아시아 여행을 만납니다👩🏻‍💻🌴🍵💃🏻 내 절친과 함께 금요일 브이로그를 나란히 편집하는 것을 좋아했습니다. 당신과 당신의 친구들의 날이 이렇게 다르게 보일까요? 😅</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9.529025191675794</v>
+        <v>10.06864988558352</v>
       </c>
       <c r="I6" t="n">
-        <v>7.338444687842278</v>
+        <v>7.780320366132723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.190580503833516</v>
+        <v>2.288329519450801</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2190580503833516</v>
+        <v>0.2288329519450801</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -763,64 +758,63 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alicja.ugccreative/video/7479940314350783766</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>919</v>
+      </c>
+      <c r="C7" t="n">
+        <v>120</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>만약 당신이 그것을 필요로 한다면, 여기 당신의 일요일 알림이 있습니다🤍 상충되는 우선순위와 바쁜 기간으로 때때로 압도감을 느끼는 것은 정상입니다. 몇 주 동안 다른 약속과 함께 UGC를 잘 관리하지만 매주 다르다는 것을 알게 되었습니다! UGC 크리에이터가 되는 것의 균형에 대한 당신의 생각을 듣고 싶습니다. 🫶🏼</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>15.66920565832426</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.05767138193689</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.611534276387378</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.088139281828074</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/photo/7478334166459796758</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>322</v>
-      </c>
-      <c r="C7" t="n">
-        <v>67</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>A Day in Our Lives: Corporate London WFH meets South East Asia travels 👩🏻‍💻🌴🍵💃🏻
-Loved editing this side by side Friday vlog with my bestie. Would yours and your friends’ days look this different? 😅</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>27.01863354037267</v>
-      </c>
-      <c r="I7" t="n">
-        <v>20.80745341614907</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.211180124223603</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.6211180124223602</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alicja.ugccreative/video/7476876632343612695</t>
-        </is>
-      </c>
       <c r="B8" t="n">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="C8" t="n">
         <v>49</v>
@@ -836,23 +830,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Scroll for some recent feedback from a UGC collaboration in the fragrance niche (one of my absolute favourite niches and favourite clients!)</t>
+          <t>향수 틈새 시장에서 UGC 콜라보레이션의 최근 피드백을 보려면 스크롤하십시오(내가 가장 좋아하는 틈새 및 가장 좋아하는 고객 중 하나!) 성공적인 브랜드 협업을 확보하는 방법에 대한 팁을 보려면 팔로우하세요☺️🤍 브랜드! 변환하는 콘텐츠에 관심이 있습니까? DM 또는 alicja.ugccreative@gmail.com 통해 연락하십시오. 💌</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>18.86304909560723</v>
+        <v>22.53086419753086</v>
       </c>
       <c r="I8" t="n">
-        <v>12.66149870801033</v>
+        <v>15.12345679012346</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.2015503875969</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L8" t="n">
-        <v>1.291989664082687</v>
+        <v>1.54320987654321</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -864,13 +858,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alicja.ugccreative/video/7475791795100683522</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alicja.ugccreative/video/7476876632343612695</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C9" t="n">
         <v>70</v>
@@ -886,23 +880,23 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>If you can’t tell by the smile on my face, I’m so proud of my crochet penguin 🥹 The best hobby I’ve started in 2025 so far!</t>
+          <t>내 얼굴의 미소로 알 수 없다면, 나는 내 코바늘 펭귄이 너무 자랑스러워🥹 지금까지 2025년에 시작한 최고의 취미! 크로셰를 먹어본 적이 있나요?🧶 정통 변환 콘텐츠를 찾는 브랜드라면 DM이나 alicja.ugccreative@gmail.com 통해 연락하세요. 💌</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>26.75675675675675</v>
+        <v>25.51546391752577</v>
       </c>
       <c r="I9" t="n">
-        <v>18.91891891891892</v>
+        <v>18.04123711340206</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.837837837837839</v>
+        <v>7.474226804123711</v>
       </c>
       <c r="L9" t="n">
-        <v>2.162162162162162</v>
+        <v>2.061855670103093</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -914,13 +908,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alicja.ugccreative/video/7474974346709093654</t>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alicja.ugccreative/video/7475791795100683522</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>887</v>
+        <v>373</v>
       </c>
       <c r="C10" t="n">
         <v>78</v>
@@ -932,1220 +926,1220 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>다음 날을 위해 리셋하는 데 도움이 되는 편안한 야간 루틴을 위해 저와 함께 하세요🫶🏼 야간 루틴에 무엇을 추가하고 싶습니까? 집에서 요가를 더 하고 싶어요🧘🏻‍♀️ 브랜드! alicja.ugccreative@gmail.com에서 DM이나 이메일을 통해 콘텐츠를 참여시키기 위해 연락하십시오. 💌</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>28.41823056300268</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20.91152815013405</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.506702412868632</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.876675603217158</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alicja.ugccreative/video/7474974346709093654</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>887</v>
+      </c>
+      <c r="C11" t="n">
+        <v>78</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>6</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Join me for a relaxing night time routine that helps me reset for the next day ahead 🫶🏼
 What would you like to add to your nighttime routine? I’d like to do more at-home yoga sessions 🧘🏻‍♀️</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>11.95039458850056</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>8.793686583990981</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.156708004509583</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>0.6764374295377678</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7474319585810910486</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>971</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>52</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>13</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>11</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>My 5 step guide to smashing paid UGC ads for clients 👩🏻‍💻
 Do you prefer making/watching organic content or ads? ⬇️</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>6.694129763130793</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>5.355303810504634</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1.338825952626159</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>1.132852729145211</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7473591134007184662</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>397</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>80</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>17</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>5</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Your reminder to breathe &amp; have a matcha 🍵😋
 Brands! Get in touch for engaging content via DM or email at alicja.ugccreative@gmail.com 💌</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>24.43324937027708</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>20.15113350125945</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.282115869017632</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>1.259445843828715</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7472500026061704470</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>1020</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>72</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>25</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>I love day in the life videos so here’s a (surprisingly sunny) day in the office in London 🏙️🖥️
 Are you balancing a 9-5 with content creation? I’d love to hear your tips 🫶🏼</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>9.509803921568627</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>7.058823529411764</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.450980392156863</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L14" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7472025986855374102</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>952</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>98</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>28</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>9</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>You have 1 second to engage your audience with a scroll-stopping hook – what are your top tips? 🚀✨
 Brands! Get in touch for scroll-stopping content via DM or email at alicja.ugccreative@gmail.com 💌</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>13.23529411764706</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>10.29411764705882</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.941176470588235</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L15" t="n">
         <v>0.9453781512605042</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7470857799212289302</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>504</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>123</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>18</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>8</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>End of week personal growth motivation 🤍
 What do you think of this mindset? I’d love to know how you take yourself out of your comfort zone 🫶🏼</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>27.97619047619048</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>24.40476190476191</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.571428571428571</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>1.587301587301587</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7470219986687085856</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>346</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>64</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>21</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>5</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Welcome to my home, aka my favourite place ever 🤍
 Is this how you also feel about your house? With this cold weather I much prefer staying indoors 🏡💚</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>24.56647398843931</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>18.49710982658959</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>6.069364161849711</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>1.445086705202312</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/photo/7469710245833608481</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>401</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>60</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>22</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>6</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Let’s spend an evening together as a girl trying to balance her 9-5 in London with being a UGC creator👩🏻‍💻
 I love videos like this, with creator transparency in things we are balancing alongside UGC, whether that’s a 9-5, being a carer or parent. I’d love to hear what you think! 💭</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>20.44887780548628</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>14.96259351620948</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>5.486284289276807</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>1.496259351620948</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7468696376839343392</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>317</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>61</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D19" t="n">
         <v>19</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>6</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Can you relate? Fellow creators, I’d love to hear your icks! 😅
 #contentcreator #ugc #ugccreator #ugcmarketing</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>25.23659305993691</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>19.24290220820189</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>5.993690851735016</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L19" t="n">
         <v>1.892744479495268</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7468018377810840865</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>177</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>50</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>11</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>4</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Solo date idea for the girlies - book store, hot drink and people watching 📚🎧☕️
 Do you take yourself on solo dates? I love them &amp; try to go on one at least once a week 🫶🏼</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>34.46327683615819</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>28.24858757062147</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>6.214689265536723</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>2.259887005649718</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7467554932363644193</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>469</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>39</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>11</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Client feedback like this makes my day! 🫶🏼
 Brands! Interested in working together? Get in touch via DM or alicja.ugccreative@gmail.com 💌</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>10.66098081023454</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>8.315565031982942</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.345415778251599</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L21" t="n">
         <v>0.4264392324093816</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7466196499509087521</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>1179</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>94</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>28</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>4</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Sunday morning in my life as a 24 year old UK corporate girlie and UGC creator 🌞
 I had a lot of fun editing this video, I feel like this style of content gets my personality across! I’d love to hear what you think 🫶🏼</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>10.34775233248516</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>7.972858354537744</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>2.374893977947413</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>0.3392705682782018</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7465779796354649376</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>357</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>59</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>12</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>6</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Trying to beat the January Blues? I am bringing you a cosy hotel review from my recent trip to Zakopane in Poland 🏔️⛷️</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>19.88795518207283</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>16.5266106442577</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.361344537815126</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>1.680672268907563</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7464700284250459424</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>426</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>31</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>10</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>3</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>I loved making this video for a brand in the fragrance/lifestyle niche! 🌺
 For this project I used a visual hook and an engaging, solutions-based intro which didn’t sound overly scripted.</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>9.624413145539906</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>7.276995305164319</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.347417840375587</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>0.7042253521126761</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7464201511833259296</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>889</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C25" t="n">
         <v>91</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>21</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>7</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>I’ve loved creating content for brands from a variety of niches over the past few months! Fragrance is a particular favourite of mine at the moment 🌺</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>12.59842519685039</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>10.23622047244094</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.362204724409449</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>0.7874015748031495</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7461240356785507617</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>470</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>126</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>23</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>11</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>I’ve loved creating content for brands from a variety of niches over the past few months! Fragrance is a particular favourite of mine at the moment 🌺</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>31.70212765957447</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>26.80851063829787</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.893617021276595</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>2.340425531914894</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-01-26</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7460112265849720097</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B27" t="n">
         <v>390</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C27" t="n">
         <v>68</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>7</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>6</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Gym/Supplement UGC Example 💪🏼
 If you’re anything like me &amp; you want your gym gains to last - I’ve found the perfect matcha to help with muscle recovery 🍵🏋🏻‍♀️</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>19.23076923076923</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>17.43589743589743</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1.794871794871795</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>1.538461538461539</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-01-18</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7459371157670710561</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>727</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>55</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>17</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>One of my skincare goals this year was to find more natural and affordable products with ingredients that would protect my skin barrier.</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>9.903713892709765</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>7.565337001375516</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.338376891334251</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>0.5502063273727648</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-01-15</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7458255875451456801</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>565</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C29" t="n">
         <v>80</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>39</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>18</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Increase your social media engagement with these 5 visual hook ideas 🚀
 As a UGC creator, one of my aims is to boost brands’ engagement through effectively hooking the target audience to the video from the outset 👩🏻‍💻✅</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>21.06194690265487</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>14.15929203539823</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>6.902654867256637</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>3.185840707964602</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7457870098309680416</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B30" t="n">
         <v>299</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>76</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D30" t="n">
         <v>28</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>6</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Let’s make a quick lazy (or busy) girl matcha together 🍵🫶🏼 ft. @Reformed
 Brands! Interested in working together? Get in touch via DM or alicja.ugccreative@gmail.com 💌</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>34.78260869565217</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>25.4180602006689</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>9.364548494983277</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>2.006688963210702</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7457514423947742496</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B31" t="n">
         <v>419</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C31" t="n">
         <v>40</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D31" t="n">
         <v>10</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>2</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>No Scroll Sunday Vlog 📵
 Last week I set myself a challenge to cut down my screen time and use no social media or even edit my UGC content for the whole day.</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>11.93317422434368</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>9.54653937947494</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>2.386634844868735</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L31" t="n">
         <v>0.477326968973747</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-01-09</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7457139402129640737</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B32" t="n">
         <v>523</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>66</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D32" t="n">
         <v>10</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>9</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Some of the top apps I use as a full time UGC creator based in the UK 🚀
 ✨Canva: Editing my portfolio, editing posts</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>14.53154875717017</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>12.61950286806883</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>1.912045889101339</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L32" t="n">
         <v>1.720841300191205</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-01-08</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/photo/7456742803029249313</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B33" t="n">
         <v>437</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C33" t="n">
         <v>55</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>24</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>5</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>The best brightening face mask I’ve used ✨
 Packed with natural ingredients, including Yuzu and Camu Camu, this</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>18.07780320366133</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>12.58581235697941</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>5.491990846681922</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>1.1441647597254</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-01-07</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7456031063601712416</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B34" t="n">
         <v>409</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C34" t="n">
         <v>40</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D34" t="n">
         <v>13</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>One of my goals for 2025 was to try out new hobbies and I have found a new love for crocheting with @Fuppys !</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>12.95843520782396</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9.779951100244499</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.178484107579462</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.7334963325183375</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>2025-01-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alicja.ugccreative/video/7455754807828172065</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>423</v>
-      </c>
-      <c r="C34" t="n">
-        <v>67</v>
-      </c>
-      <c r="D34" t="n">
-        <v>23</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2155,95 +2149,95 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>One of my goals for 2025 was to try out new hobbies and I have found a new love for crocheting with @Fuppys !</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>12.95843520782396</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9.779951100244499</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.178484107579462</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.7334963325183375</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alicja.ugccreative/video/7455754807828172065</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>423</v>
+      </c>
+      <c r="C35" t="n">
+        <v>67</v>
+      </c>
+      <c r="D35" t="n">
+        <v>23</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Starting 2025 with this mindset 🙂‍↕️
 Prioritising movement, self-development, health &amp; diet, new hobbies, and people closest to me all of this year✨</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>21.27659574468085</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>15.83924349881797</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>5.437352245862884</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L35" t="n">
         <v>0.7092198581560284</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-01-04</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7455400839683837216</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B36" t="n">
         <v>968</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>85</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Morning Vlog: Day in the Life of a 23-year-old UGC creator girlie living in the UK - the 🌞 blessed us this morning!</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10.74380165289256</v>
-      </c>
-      <c r="I35" t="n">
-        <v>8.78099173553719</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1.962809917355372</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.4132231404958678</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2025-01-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alicja.ugccreative/video/7453863275952950560</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>628</v>
-      </c>
-      <c r="C36" t="n">
-        <v>61</v>
       </c>
       <c r="D36" t="n">
         <v>19</v>
@@ -2252,203 +2246,203 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Morning Vlog: Day in the Life of a 23-year-old UGC creator girlie living in the UK - the 🌞 blessed us this morning!</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10.74380165289256</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8.78099173553719</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.962809917355372</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.4132231404958678</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alicja.ugccreative/video/7453863275952950560</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>628</v>
+      </c>
+      <c r="C37" t="n">
+        <v>61</v>
+      </c>
+      <c r="D37" t="n">
+        <v>19</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>10</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Morning Vlog: Day in the Life of a 23-year-old UGC creator girlie living in the UK - the 🌞 blessed us this morning!</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>12.73885350318471</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I37" t="n">
         <v>9.713375796178344</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.025477707006369</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L37" t="n">
         <v>1.592356687898089</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-01-03</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7453471280285682977</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B38" t="n">
         <v>411</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C38" t="n">
         <v>62</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>21</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>8</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Let’s plan for 2025 👩🏻‍💻🤍
 This year I am using @grace beverley ’s strategy to set my goals for the year ahead. I also made my classic vision board and a goal bingo card!</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>20.19464720194647</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>15.08515815085158</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>5.109489051094891</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L38" t="n">
         <v>1.94647201946472</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-12-30</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7452768056809508129</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B39" t="n">
         <v>411</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C39" t="n">
         <v>60</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D39" t="n">
         <v>12</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>7</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>🚀 First 5 steps to take in 2025 to become a UGC creator 🚀
 1. 🔎 Research UGC! Follow creators who resonate with you &amp; your values, look up key terms to understand the field better.</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>17.51824817518248</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I39" t="n">
         <v>14.5985401459854</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>2.91970802919708</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L39" t="n">
         <v>1.70316301703163</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-12-28</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7451967181027347744</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>467</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C40" t="n">
         <v>57</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D40" t="n">
         <v>4</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>London’s must-visit coffee/dessert spot! Follow me for more London girlie content &amp; sweet treat recommendations 🍩🥐☕️</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>13.06209850107066</v>
-      </c>
-      <c r="I39" t="n">
-        <v>12.20556745182013</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.8565310492505354</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.498929336188437</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2024-12-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alicja.ugccreative/video/7451664790662974753</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>377</v>
-      </c>
-      <c r="C40" t="n">
-        <v>65</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2458,539 +2452,589 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
+          <t>London’s must-visit coffee/dessert spot! Follow me for more London girlie content &amp; sweet treat recommendations 🍩🥐☕️</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>13.06209850107066</v>
+      </c>
+      <c r="I40" t="n">
+        <v>12.20556745182013</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8565310492505354</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.498929336188437</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alicja.ugccreative/video/7451664790662974753</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>377</v>
+      </c>
+      <c r="C41" t="n">
+        <v>65</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>POV: I’ve been your 2024 UGC creator ✨ I’ve loved working with brands from a real range of niches, and can’t wait to continue in 2025! ⭐️</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H41" t="n">
         <v>18.03713527851459</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I41" t="n">
         <v>17.24137931034483</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.7957559681697612</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L41" t="n">
         <v>1.856763925729443</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7450549935444921633</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B42" t="n">
         <v>335</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C42" t="n">
         <v>53</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D42" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>3</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Bringing you cosy winter vibes from London 🇬🇧🎄💌✨
 Brands! Interested in working together? Get in touch via DM or email at alicja.ugccreative@gmail.com 💌</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H42" t="n">
         <v>17.3134328358209</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I42" t="n">
         <v>15.82089552238806</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>1.492537313432836</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L42" t="n">
         <v>0.8955223880597015</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7450177781855554848</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
         <v>540</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C43" t="n">
         <v>73</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>4</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>4</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Join me for a slow morning with my favourite coffee from @Hotel Chocolat USA 🤎☕️
 What’s your one morning routine non-negotiable?</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H43" t="n">
         <v>14.25925925925926</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I43" t="n">
         <v>13.51851851851852</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.7407407407407408</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L43" t="n">
         <v>0.7407407407407408</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-12-21</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7449784318341156129</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B44" t="n">
         <v>395</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C44" t="n">
         <v>80</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D44" t="n">
         <v>9</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>5</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Join me for a Christmas shopping vlog in London 🎄🏙️
 @John Lewis is my absolute favourite place to shop for gifts because they have everything I could think of!</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H44" t="n">
         <v>22.53164556962025</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I44" t="n">
         <v>20.25316455696203</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>2.278481012658228</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L44" t="n">
         <v>1.265822784810127</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-12-20</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/photo/7449334491803421984</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B45" t="n">
         <v>345</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C45" t="n">
         <v>41</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D45" t="n">
         <v>11</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>3</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Welcome back to the Thoughtful Gift Guide Series Ep. 4!✨
 This episode is about gifts for the men in your life!
 🗒️ Product Details:</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H45" t="n">
         <v>15.07246376811594</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I45" t="n">
         <v>11.88405797101449</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>3.188405797101449</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L45" t="n">
         <v>0.8695652173913043</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7448951975716162848</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B46" t="n">
         <v>378</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C46" t="n">
         <v>55</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D46" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>3</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Some of my ultimate mood-boosters for the winter season, including baking, decorating, discovering new bars &amp; cafes, skincare, football and taking advantage of it getting dark early with nighttime walks in London 🖤</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H46" t="n">
         <v>16.93121693121693</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I46" t="n">
         <v>14.55026455026455</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>2.380952380952381</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L46" t="n">
         <v>0.7936507936507936</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-12-17</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7448253493128875297</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B47" t="n">
         <v>322</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C47" t="n">
         <v>52</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D47" t="n">
         <v>2</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>5</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Niches I’ve recently worked in as a UK UGC creator 🙌🏼🚘💄💇🏻‍♀️
 What’s your favourite niche?✨
 For brands interested in working together, get in touch via DM or alicja.ugccreative@gmail.com 💌</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H47" t="n">
         <v>16.77018633540373</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I47" t="n">
         <v>16.14906832298137</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.6211180124223602</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L47" t="n">
         <v>1.552795031055901</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7447843559983615265</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B48" t="n">
         <v>1036</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>57</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>10</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>3</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Hey guys! Join me for a Saturday GRWM as I yap about UGC like we’re on FaceTime 🥹💕
 I would love to hear how you guys find filming talking-to-the-camera videos &amp; how you have overcome awkwardness!😅</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H48" t="n">
         <v>6.467181467181467</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I48" t="n">
         <v>5.501930501930502</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.9652509652509652</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L48" t="n">
         <v>0.2895752895752896</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-12-14</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7447496660374064417</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B49" t="n">
         <v>375</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>100</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>12</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>13</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>“Plans are nothing, planning is everything”! Unbox my 2025 Daily Planner from @theproductivitymethod with me 🍒📕💋</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>29.86666666666667</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>26.66666666666667</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>3.2</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>3.466666666666666</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-12-13</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/video/7446769149440691489</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B50" t="n">
         <v>487</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C50" t="n">
         <v>67</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D50" t="n">
         <v>1</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>7</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Welcome back to the Thoughtful Gift Guide Series Ep. 3!✨
 💕This episode is about gifts for the girlies!💕
 📚Book recommendations: Women Who Run With the Wolves, Everything I Know About Love, Conversations on Love, The Little Book of Ikigai, and Before the Coffee Gets Cold</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H50" t="n">
         <v>13.96303901437371</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I50" t="n">
         <v>13.75770020533881</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.2053388090349076</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L50" t="n">
         <v>1.437371663244353</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-12-12</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alicja.ugccreative/photo/7446378843897662752</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B51" t="n">
         <v>408</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C51" t="n">
         <v>92</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D51" t="n">
         <v>25</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>4</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Welcome in to my home 🤍
 Brands, can you see your products in these spaces? Get in touch via DM or email at alicja.ugccreative@gmail.com 💌</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>28.67647058823529</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I51" t="n">
         <v>22.54901960784314</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>6.127450980392156</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L51" t="n">
         <v>0.9803921568627451</v>
       </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
